--- a/kakapoi/kaka-easy.xlsx
+++ b/kakapoi/kaka-easy.xlsx
@@ -99,29 +99,29 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>字符串标题</t>
+          <t>姓名</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>日期标题</t>
+          <t>出生日期</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>数字标题</t>
+          <t>体重</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>字符串0</t>
+          <t>卡卡0-7a85</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-02-03 16:01:45</t>
+          <t>2021-02-06 07:20:53</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -131,12 +131,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>字符串1</t>
+          <t>卡卡1-341a</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-02-03 16:01:45</t>
+          <t>2021-02-06 07:20:53</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -146,12 +146,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>字符串2</t>
+          <t>卡卡2-cf63</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-02-03 16:01:45</t>
+          <t>2021-02-06 07:20:53</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -161,12 +161,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>字符串3</t>
+          <t>卡卡3-a573</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-02-03 16:01:45</t>
+          <t>2021-02-06 07:20:53</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -176,12 +176,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>字符串4</t>
+          <t>卡卡4-0a23</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-02-03 16:01:45</t>
+          <t>2021-02-06 07:20:53</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -191,12 +191,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>字符串5</t>
+          <t>卡卡5-013c</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-02-03 16:01:45</t>
+          <t>2021-02-06 07:20:53</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -206,12 +206,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>字符串6</t>
+          <t>卡卡6-8119</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-02-03 16:01:45</t>
+          <t>2021-02-06 07:20:53</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -221,12 +221,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>字符串7</t>
+          <t>卡卡7-aa6f</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2021-02-03 16:01:45</t>
+          <t>2021-02-06 07:20:53</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -236,12 +236,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>字符串8</t>
+          <t>卡卡8-c2ea</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2021-02-03 16:01:45</t>
+          <t>2021-02-06 07:20:53</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -251,15 +251,615 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>字符串9</t>
+          <t>卡卡9-7483</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2021-02-03 16:01:45</t>
+          <t>2021-02-06 07:20:53</t>
         </is>
       </c>
       <c r="C11" t="n">
+        <v>0.56</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>卡卡10-c1ad</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2021-02-06 07:20:53</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.56</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>卡卡11-f4c3</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2021-02-06 07:20:53</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.56</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>卡卡12-cc6a</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2021-02-06 07:20:53</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0.56</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>卡卡13-84cd</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2021-02-06 07:20:53</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0.56</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>卡卡14-e133</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2021-02-06 07:20:53</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0.56</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>卡卡15-139d</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2021-02-06 07:20:53</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0.56</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>卡卡16-bd77</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2021-02-06 07:20:53</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0.56</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>卡卡17-e05d</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2021-02-06 07:20:53</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0.56</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>卡卡18-a381</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2021-02-06 07:20:53</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0.56</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>卡卡19-549d</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2021-02-06 07:20:53</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0.56</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>卡卡20-3069</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2021-02-06 07:20:53</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0.56</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>卡卡21-8755</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2021-02-06 07:20:53</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.56</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>卡卡22-249d</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2021-02-06 07:20:53</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0.56</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>卡卡23-bc2d</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2021-02-06 07:20:53</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0.56</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>卡卡24-66fc</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2021-02-06 07:20:53</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0.56</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>卡卡25-4ae8</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2021-02-06 07:20:53</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.56</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>卡卡26-4e5e</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2021-02-06 07:20:53</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.56</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>卡卡27-6b02</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2021-02-06 07:20:53</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.56</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>卡卡28-4607</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2021-02-06 07:20:53</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.56</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>卡卡29-4846</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2021-02-06 07:20:53</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.56</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>卡卡30-f703</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2021-02-06 07:20:53</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0.56</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>卡卡31-a4a3</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2021-02-06 07:20:53</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0.56</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>卡卡32-52cb</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2021-02-06 07:20:53</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0.56</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>卡卡33-abf1</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2021-02-06 07:20:53</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0.56</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>卡卡34-be01</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2021-02-06 07:20:53</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0.56</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>卡卡35-00d5</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2021-02-06 07:20:53</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0.56</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>卡卡36-d84a</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2021-02-06 07:20:53</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0.56</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>卡卡37-246f</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2021-02-06 07:20:53</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0.56</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>卡卡38-c4e2</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2021-02-06 07:20:53</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0.56</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>卡卡39-3c36</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2021-02-06 07:20:53</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0.56</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>卡卡40-c8c2</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2021-02-06 07:20:53</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0.56</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>卡卡41-3ab1</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2021-02-06 07:20:53</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0.56</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>卡卡42-bbab</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2021-02-06 07:20:53</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0.56</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>卡卡43-4556</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2021-02-06 07:20:53</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0.56</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>卡卡44-bbaf</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2021-02-06 07:20:53</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0.56</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>卡卡45-c21b</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2021-02-06 07:20:53</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0.56</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>卡卡46-a99c</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2021-02-06 07:20:53</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0.56</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>卡卡47-73fd</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2021-02-06 07:20:53</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0.56</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>卡卡48-1c78</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2021-02-06 07:20:53</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0.56</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>卡卡49-a04f</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2021-02-06 07:20:53</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
         <v>0.56</v>
       </c>
     </row>
